--- a/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
+++ b/src/test/resources/ExcelFiles/AutomationControlSheet.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="AppControl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>Tx-Automate: SETTINGS</t>
   </si>
@@ -44,9 +57,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/</t>
   </si>
   <si>
     <t>Execution Environment</t>
@@ -77,16 +87,10 @@
     <t>anandaggarwal_jvlf6M</t>
   </si>
   <si>
-    <t>testdemo_PHIWSr</t>
-  </si>
-  <si>
     <t>KEY OR PORT</t>
   </si>
   <si>
     <t>SzgmuiYTjaCYkgFxsGyp</t>
-  </si>
-  <si>
-    <t>gpukWvXR7zp8BVtHisTT</t>
   </si>
   <si>
     <t>OS</t>
@@ -111,15 +115,9 @@
     <t>EMAIL ID</t>
   </si>
   <si>
-    <t>txdemoone@gmail.com</t>
-  </si>
-  <si>
     <t>HTML Report</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>XLS REPORT</t>
   </si>
   <si>
@@ -138,102 +136,57 @@
     <t>Tool Config</t>
   </si>
   <si>
+    <t>Select "YES" if you have Test management tool configured else Select "NO"</t>
+  </si>
+  <si>
+    <t>HOST NAME</t>
+  </si>
+  <si>
+    <t>API KEY</t>
+  </si>
+  <si>
+    <t>PROJECT NAME</t>
+  </si>
+  <si>
+    <t>TEST PLAN NAME</t>
+  </si>
+  <si>
+    <t>BUG TRACKING TOOL CONFIGURATION</t>
+  </si>
+  <si>
+    <t>BUG TRACKING TOOL Name</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>Select "YES" if you have Test management tool configured else Select "NO"</t>
-  </si>
-  <si>
-    <t>HOST NAME</t>
-  </si>
-  <si>
-    <t>172.16.3.30</t>
-  </si>
-  <si>
-    <t>API KEY</t>
-  </si>
-  <si>
-    <t>25f088e7761641aa0be797d22e97d9a6</t>
-  </si>
-  <si>
-    <t>PROJECT NAME</t>
-  </si>
-  <si>
-    <t>TestingXperts</t>
-  </si>
-  <si>
-    <t>TEST PLAN NAME</t>
-  </si>
-  <si>
-    <t>TestCycleForDemo</t>
-  </si>
-  <si>
-    <t>BUG TRACKING TOOL CONFIGURATION</t>
-  </si>
-  <si>
-    <t>BUG TRACKING TOOL Name</t>
-  </si>
-  <si>
     <t>Select "YES" if you have Bug Tracking Tool configured else Select "NO"</t>
   </si>
   <si>
     <t>URL OR HOSTNAME</t>
   </si>
   <si>
-    <t>https://testingxpert.atlassian.net</t>
-  </si>
-  <si>
     <t>USERNAME</t>
   </si>
   <si>
-    <t>testaccount1@testingxperts.com</t>
-  </si>
-  <si>
-    <t>Damco@1234</t>
-  </si>
-  <si>
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>72phbdI56sCaaCYIr7Se5451</t>
-  </si>
-  <si>
-    <t>1qq6cPPNrx5OdFLlybxNAA28</t>
-  </si>
-  <si>
-    <t>TES</t>
-  </si>
-  <si>
     <t>JIRA TEST MANAGEMENT TOOL</t>
   </si>
   <si>
     <t>CYCLE ID</t>
   </si>
   <si>
-    <t>0001505811674768-242ac112-0001</t>
-  </si>
-  <si>
     <t>PROJECT ID</t>
   </si>
   <si>
-    <t>10001</t>
-  </si>
-  <si>
     <t>REST API TEST CONFIGURATION</t>
   </si>
   <si>
-    <t>https://gorest.co.in/public-api/users</t>
-  </si>
-  <si>
-    <t>https://townsqd.com/api -old one</t>
-  </si>
-  <si>
     <t>Auth. Token</t>
   </si>
   <si>
-    <t>Bearer 1a19e604ca039150a6dfd301fbaf43cd612a3d8437c371dcdf983a6697e8a6a0</t>
-  </si>
-  <si>
     <t>ANDROID CONFIGURATION</t>
   </si>
   <si>
@@ -243,36 +196,34 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>Google Pixel 3 GoogleAPI Emulator</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>IOS CONFIGURATION</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>UDID</t>
+  </si>
+  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t>IOS CONFIGURATION</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>UDID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,20 +277,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -349,7 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,10 +300,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,10 +325,25 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,52 +357,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,11 +386,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -496,13 +440,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,169 +614,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,11 +649,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,21 +708,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,250 +746,238 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="60% - Accent6" xfId="2" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="3" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="5" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="6" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="9" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="10" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="19" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="20" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="21" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="22" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="23" builtinId="32"/>
-    <cellStyle name="Bad" xfId="24" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
-    <cellStyle name="Total" xfId="26" builtinId="25"/>
-    <cellStyle name="Output" xfId="27" builtinId="21"/>
-    <cellStyle name="Currency" xfId="28" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="29" builtinId="38"/>
-    <cellStyle name="Note" xfId="30" builtinId="10"/>
-    <cellStyle name="Input" xfId="31" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="32" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="33" builtinId="22"/>
-    <cellStyle name="Good" xfId="34" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="36" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="38" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="41" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="42" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
-    <cellStyle name="Comma" xfId="45" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal 2" xfId="49"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1330,20 +1271,20 @@
   <sheetPr/>
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="48.546875" customWidth="1"/>
+    <col min="1" max="1" width="48.5428571428571" customWidth="1"/>
     <col min="2" max="2" width="73" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="7" max="7" width="25.2734375" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="25.2761904761905" customWidth="1"/>
+    <col min="10" max="10" width="13.4571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.2" spans="1:5">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1293,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" ht="15.2" spans="1:5">
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1363,7 +1304,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="15.2" spans="1:5">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1315,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" ht="15.2" spans="1:5">
+    <row r="4" ht="15.75" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1326,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" ht="15.2" spans="1:5">
+    <row r="5" ht="15.75" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1396,546 +1337,492 @@
       <c r="D5" s="6"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" ht="15.2" spans="1:5">
+    <row r="6" ht="15.75" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B6" s="7"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" ht="15.2" spans="1:5">
+    <row r="7" ht="15.75" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" ht="92" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" ht="15.2" spans="1:5">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="15.2" spans="1:5">
+    <row r="10" ht="15.75" spans="1:5">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" ht="15.2" spans="1:5">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" ht="15.75" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="15.2" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="61" spans="1:5">
+    <row r="13" ht="63" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="15.2" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="15.2" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" ht="15.2" spans="1:5">
+    <row r="16" ht="15.75" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" ht="15.2" spans="1:5">
+    <row r="17" ht="15.75" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" ht="15.2" spans="1:5">
+    <row r="18" ht="15.75" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" ht="15.2" spans="1:5">
+    <row r="19" ht="15.75" spans="1:5">
       <c r="A19" s="10"/>
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" ht="15.2" spans="1:5">
+    <row r="20" ht="15.75" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="15.2" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" ht="46" spans="1:5">
+    <row r="22" ht="47.25" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="15.2" spans="1:5">
+      <c r="E22" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" ht="15.2" spans="1:5">
+    <row r="24" ht="15.75" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B24" s="3"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" ht="15.2" spans="1:5">
+    <row r="25" ht="15.75" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" ht="15.2" spans="1:5">
+    <row r="26" ht="15.75" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" ht="15.2" spans="1:5">
+    <row r="27" ht="15.75" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="15.2" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" ht="46" spans="1:5">
+    <row r="29" ht="47.25" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" ht="15.2" spans="1:5">
+      <c r="E29" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>54</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B30" s="7"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" ht="15.2" spans="1:5">
+    <row r="31" ht="15.75" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>56</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B31" s="7"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" ht="15.2" spans="1:7">
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" ht="15.75" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B32"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="G32" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" ht="15.2" spans="1:5">
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" ht="15.75" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" ht="14.8" spans="1:5">
+    <row r="34" ht="15.75" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" ht="15.2" spans="1:5">
+    <row r="35" ht="15.75" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" ht="46" spans="1:5">
+    <row r="36" ht="47.25" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" ht="15.2" spans="1:5">
+      <c r="E36" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
     </row>
-    <row r="38" ht="15.2" spans="1:5">
+    <row r="38" ht="15.75" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>66</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B38" s="14"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" ht="15.2" spans="1:5">
+    <row r="39" ht="15.75" spans="1:5">
       <c r="A39" s="8" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" ht="15.2" spans="1:5">
+    <row r="40" ht="15.75" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>68</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B40" s="7"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" ht="15.2" spans="1:5">
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" ht="15.75" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>71</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B41" s="7"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" ht="15.2" spans="1:5">
+    <row r="42" ht="15.75" spans="1:5">
       <c r="A42" s="2"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" ht="15.2" spans="1:5">
+    <row r="43" ht="15.75" spans="1:5">
       <c r="A43" s="8" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" ht="15.2" spans="1:5">
+    <row r="44" ht="15.75" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B44" s="16">
-        <v>10</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B44" s="17"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" ht="15.2" spans="1:5">
+    <row r="45" ht="15.75" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B45" s="14"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" ht="15.2" spans="1:5">
+    <row r="46" ht="15.75" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>75</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B46" s="14"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" ht="15.2" spans="1:5">
+    <row r="47" ht="15.75" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" ht="15.2" spans="1:5">
+    <row r="48" ht="15.75" spans="1:5">
       <c r="A48" s="2"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" ht="15.2" spans="1:5">
+    <row r="49" ht="15.75" spans="1:5">
       <c r="A49" s="2"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" ht="15.2" spans="1:5">
+    <row r="50" ht="15.75" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" ht="15.2" spans="1:5">
+    <row r="51" ht="15.75" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" ht="15.2" spans="1:5">
+    <row r="52" ht="15.75" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" ht="15.2" spans="1:5">
+    <row r="53" ht="15.75" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" ht="15.2" spans="1:5">
+    <row r="54" ht="15.75" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" ht="15.2" spans="1:5">
+    <row r="55" ht="15.75" spans="1:5">
       <c r="A55" s="2"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" ht="15.2" spans="1:5">
+    <row r="56" ht="15.75" spans="1:5">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -1956,15 +1843,6 @@
       <formula1>"Remote, Local"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" display="https://testingxpert.atlassian.net"/>
-    <hyperlink ref="B31" r:id="rId2" display="testaccount1@testingxperts.com"/>
-    <hyperlink ref="G32" r:id="rId3" display="1qq6cPPNrx5OdFLlybxNAA28"/>
-    <hyperlink ref="B6" r:id="rId4" display="https://www.amazon.in/"/>
-    <hyperlink ref="E31" r:id="rId3" display="Damco@1234"/>
-    <hyperlink ref="E40" r:id="rId5" display="https://townsqd.com/api -old one"/>
-    <hyperlink ref="B15" r:id="rId6" display="txdemoone@gmail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
